--- a/data/trans_dic/P55_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días</t>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>93,14%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98,77%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>99,13%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>97,96%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>94,69%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>99,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>94,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,88; 99,47</t>
+          <t>93,91; 99,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,3; 95,35</t>
+          <t>88,56; 98,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,43; 99,53</t>
+          <t>81,0; 96,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,7; 100,0</t>
+          <t>85,89; 96,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,18</t>
+          <t>95,19; 99,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,71; 97,64</t>
+          <t>95,65; 100,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94,79; 100,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 100,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96,06; 99,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94,18; 98,87</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88,75; 97,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>91,59; 98,32</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>96,05%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>94,67%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>96,62%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>91,38%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>96,52%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>89,73%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>95,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>95,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>95,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>92,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,49%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,12; 98,02</t>
+          <t>90,46; 98,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,48; 98,19</t>
+          <t>92,32; 98,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,6; 98,64</t>
+          <t>89,36; 98,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,52; 94,08</t>
+          <t>82,4; 96,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,51; 97,85</t>
+          <t>93,27; 98,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,58; 95,28</t>
+          <t>91,06; 97,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>83,0; 93,88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>87,56; 96,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>92,56; 97,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>92,79; 97,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>88,62; 95,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87,38; 95,34</t>
         </is>
       </c>
     </row>
@@ -766,27 +942,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>96,41%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>95,61%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>98,25%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95,07%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>94,9%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,61; 99,64</t>
+          <t>96,74; 99,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,05; 97,89</t>
+          <t>92,76; 98,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,6; 99,28</t>
+          <t>91,8; 97,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,1; 96,9</t>
+          <t>86,74; 94,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,26; 99,22</t>
+          <t>96,35; 99,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,28; 96,7</t>
+          <t>89,72; 96,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>89,94; 96,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89,82; 97,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97,29; 99,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92,47; 96,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92,3; 96,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>90,15; 95,18</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>95,75%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>88,92%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>95,8%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>91,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>95,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>95,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>92,14%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>96,92%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>90,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>96,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>95,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>90,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91,06%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,06; 99,18</t>
+          <t>96,43; 99,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,45; 93,14</t>
+          <t>92,59; 97,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,15; 97,44</t>
+          <t>83,03; 93,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,69; 95,23</t>
+          <t>86,97; 94,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,31; 98,02</t>
+          <t>92,99; 97,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,24; 93,33</t>
+          <t>92,56; 97,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>88,11; 95,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>86,18; 93,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95,42; 98,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>93,32; 96,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86,63; 93,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87,85; 93,44</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>93,07%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>87,04%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>94,62%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>89,52%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>94,97%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>87,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>94,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>88,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>88,67%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,0; 97,35</t>
+          <t>91,77; 97,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,75; 91,44</t>
+          <t>88,94; 95,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,45; 97,06</t>
+          <t>81,23; 91,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,33; 93,53</t>
+          <t>80,55; 91,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,64; 96,67</t>
+          <t>90,86; 97,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,9; 91,43</t>
+          <t>80,79; 91,59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84,53; 93,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85,15; 93,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92,73; 96,59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86,68; 92,77</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>84,92; 91,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85,42; 91,65</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>94,47%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>89,5%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>93,11%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>87,56%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>92,35%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>88,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>92,78%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>95,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90,94%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>95,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>91,34%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>91,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>89,53%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,02; 99,64</t>
+          <t>95,68; 99,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,37; 93,3</t>
+          <t>89,51; 97,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,76; 96,15</t>
+          <t>83,54; 93,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,65; 96,38</t>
+          <t>80,87; 92,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,59; 97,36</t>
+          <t>84,72; 95,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,29; 94,28</t>
+          <t>77,57; 94,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>86,38; 96,82</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>85,99; 94,48</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90,26; 97,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 94,32</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>87,59; 94,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>85,35; 92,51</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>95,29%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>91,26%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>96,02%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>90,42%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>95,85%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>92,69%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>96,67%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>96,59%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>91,98%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91,65%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,22</t>
+          <t>96,13; 98,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>88,9; 93,01</t>
+          <t>93,87; 96,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,07</t>
+          <t>89,22; 93,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,78; 94,24</t>
+          <t>87,84; 92,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,89; 97,33</t>
+          <t>94,33; 96,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,6; 93,13</t>
+          <t>90,34; 94,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90,79; 94,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>91,09; 94,28</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>95,63; 97,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>92,66; 95,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>90,41; 93,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90,27; 92,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,45%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>493038</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>434403</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>37440</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39994</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>493375</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>464685</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36760</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37493</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>986413</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>899086</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74200</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77488</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>472809; 500636</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>403134; 449745</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33438; 39648</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36883; 41621</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>478905; 500805</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>450032; 470488</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35151; 37083</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36530; 37784</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>966998; 998702</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>871801; 915263</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69549; 76287</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73936; 79373</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>558961</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>556963</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46304</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43074</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>495562</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>479907</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41521</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42282</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1054523</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1036870</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>87825</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>85357</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>530277; 574946</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>535333; 570884</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43708; 47991</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38844; 45432</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>478853; 505624</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>459922; 493946</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38406; 43441</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39530; 43642</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1017785; 1073432</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1006747; 1058749</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84355; 90461</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>80643; 87990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>639.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>668868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>638416</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56647</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54763</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>695688</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>666938</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49784</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51825</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1364556</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1305352</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>106432</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>106588</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>655769; 675555</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>614250; 652238</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54386; 58056</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51982; 56826</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>682511; 702794</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>637834; 686750</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47589; 51119</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49270; 53365</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1348725; 1375351</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1269708; 1330007</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>103517; 108331</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>103483; 109257</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>622252</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>625418</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51481</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51685</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>622543</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>623400</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47757</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48063</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1244794</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1248818</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99238</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>99748</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>611482; 628984</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>604739; 638012</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>48066; 53933</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49116; 53599</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>605031; 634844</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>606469; 636041</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45669; 49379</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45735; 49704</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1225861; 1259867</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1220964; 1268746</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95050; 102235</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>96237; 102364</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>467830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>458698</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38270</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38626</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>480280</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>445140</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43230</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42279</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>948110</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>903839</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81501</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>80904</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>451177; 478755</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>438330; 472027</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35713; 40321</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35766; 40463</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>461206; 492510</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>412733; 467874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>40824; 45058</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39889; 43907</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>926558; 965136</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>870013; 931172</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>78350; 84482</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>77939; 83628</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>522471</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>535062</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>41474</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>39435</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>635613</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>637677</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>58559</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>57472</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1158084</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1172740</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>100033</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>96908</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>507563; 528324</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>506987; 552761</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>38714; 43314</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36421; 41475</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>583098; 660377</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>556608; 676547</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>54517; 61106</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>54344; 59709</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1100029; 1183973</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1092968; 1211104</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>95865; 103338</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>92383; 100128</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1590.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1188.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1003.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2882.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2166.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1830.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1844.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3333420</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3248959</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>271616</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>267578</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3423060</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3317747</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>277612</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>279414</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6756480</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6566706</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>549228</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>546992</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3291381; 3360529</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3200589; 3290157</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>265555; 277043</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>259932; 273235</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3368883; 3457615</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3225280; 3370937</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>271914; 282213</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>274077; 283684</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6689565; 6799985</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6467769; 6638113</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>539905; 555937</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>538733; 553963</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>